--- a/02_MasterWifoMannheim/99_Backup/Course113.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course113.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811591178734B01FEE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A432FA4-69A5-4E0B-A8C9-1F6AA7CAB082}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 646 HR Analytics</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This course looks at the link between human resource (HR) practices and firm performance. Knowledge and other intangible assets have been shown to provide a source of competitive advantage, but their effects on firm performance are often difficult to quantify. What is the economic value of job performance? How can organizations gain from trainings or improved personnel selection? What are the costs of employee absenteeism and turnover? professionals are confronted with such questions, but often lack the necessary skills to find satisfying answers in existing firm data. The course first introduces analytical approaches to implementation in an organization’s HR architecture. Second, it aims at providing knowledge on existing empirical evidence regarding the impact of combining both approaches, the course offers ways to improve decision quality in management and demonstrate how HR practices can add value at the level of the firm.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>By the end of the module students will be able to: … understand how HR practices can influence firm performance, … develop a framework of HR measures and integrate it into a firm’s HR architecture, … design means to evaluate HR initiatives, and … empirically analyze firm data to estimate the financial impact of HR practices.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.): 75% Coursework: 25%</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Torsten Biemann</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>MAN 645, MAN 647</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 646 HR Analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This course looks at the link between human resource (HR) practices and firm performance. Knowledge and other intangible assets have been shown to provide a source of competitive advantage, but their effects on firm performance are often difficult to quantify. What is the economic value of job performance? How can organizations gain from trainings or improved personnel selection? What are the costs of employee absenteeism and turnover? professionals are confronted with such questions, but often lack the necessary skills to find satisfying answers in existing firm data. The course first introduces analytical approaches to implementation in an organization’s HR architecture. Second, it aims at providing knowledge on existing empirical evidence regarding the impact of combining both approaches, the course offers ways to improve decision quality in management and demonstrate how HR practices can add value at the level of the firm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>By the end of the module students will be able to: … understand how HR practices can influence firm performance, … develop a framework of HR measures and integrate it into a firm’s HR architecture, … design means to evaluate HR initiatives, and … empirically analyze firm data to estimate the financial impact of HR practices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAN 645, MAN 647</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.): 75% Coursework: 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Torsten Biemann</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
